--- a/docs/shr-core-SurgicalProcedure.xlsx
+++ b/docs/shr-core-SurgicalProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="350">
   <si>
     <t>Path</t>
   </si>
@@ -146,7 +146,7 @@
     <t>shr-core-SurgicalProcedure</t>
   </si>
   <si>
-    <t>A surgical action, independent of action context.</t>
+    <t>A surgical action.</t>
   </si>
   <si>
     <t xml:space="preserve">pro-1:Reason not performed is only permitted if notPerformed indicator is true {null}
@@ -416,26 +416,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>indirectsite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/procedure-approachBodySite]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The indirect site for this procedure.</t>
-  </si>
-  <si>
-    <t>directsite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/procedure-targetBodySite]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The site where the procedure is performed.</t>
-  </si>
-  <si>
     <t>statementdatetime</t>
   </si>
   <si>
@@ -446,6 +426,17 @@
     <t>The point in time when the statement was created.</t>
   </si>
   <si>
+    <t>reasoncode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The justification, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+  </si>
+  <si>
     <t>reasonreference</t>
   </si>
   <si>
@@ -529,16 +520,6 @@
     <t>The intended result from a given treatment.  Examples include curative, palliative, and supportive.</t>
   </si>
   <si>
-    <t>surgicalapproach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SurgicalApproach-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The technique used to reach the site of the procedure. Approaches may be through the skin or mucous membrane, through an orifice or external.</t>
-  </si>
-  <si>
     <t>Procedure.modifierExtension</t>
   </si>
   <si>
@@ -638,7 +619,7 @@
     <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/SurgicalProcedureVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -703,7 +684,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -718,64 +699,34 @@
     <t>Procedure.bodySite.extension</t>
   </si>
   <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>locationqualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing the side(s) of interest.</t>
-  </si>
-  <si>
-    <t>anatomicaldirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AnatomicalDirection-extension]]} {[]}
+    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing directionality.</t>
-  </si>
-  <si>
-    <t>clockdirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ClockDirection-extension]]} {[]}
+    <t>An anatomical landmark that helps determine a body location.</t>
+  </si>
+  <si>
+    <t>surgicalbodylocationrole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SurgicalBodyLocationRole-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>A direction indicated by an angle relative to 12 o'clock.</t>
-  </si>
-  <si>
-    <t>commentordescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommentOrDescription-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t>attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Attachment-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A file that contains audio, video, image, or similar content.</t>
-  </si>
-  <si>
-    <t>distancefromlandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DistanceFromLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>Describes the role played by the body site in the surgery.</t>
   </si>
   <si>
     <t>Procedure.bodySite.coding</t>
@@ -820,7 +771,11 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
-    <t>Procedure.reasonCodeableConcept</t>
+    <t>Procedure.reason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}</t>
   </si>
   <si>
     <t>Reason procedure performed</t>
@@ -836,9 +791,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
-  </si>
-  <si>
-    <t>Procedure.reason[x]</t>
   </si>
   <si>
     <t>.reasonCode</t>
@@ -1304,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM69"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1337,7 +1289,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.0234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.44140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -3070,7 +3022,7 @@
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
@@ -3282,7 +3234,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3481,11 +3433,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>140</v>
       </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>39</v>
       </c>
@@ -3508,7 +3458,9 @@
       <c r="J21" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="L21" t="s" s="2">
         <v>142</v>
       </c>
@@ -3534,7 +3486,7 @@
         <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>39</v>
@@ -3561,13 +3513,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3576,7 +3528,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3587,7 +3539,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3598,7 +3550,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>39</v>
@@ -3610,13 +3562,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3667,13 +3619,13 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -3682,7 +3634,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3693,7 +3645,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3701,10 +3653,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
@@ -3716,13 +3668,13 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3731,7 +3683,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>39</v>
@@ -3773,13 +3725,13 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
@@ -3788,7 +3740,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3799,7 +3751,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3822,13 +3774,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3837,7 +3789,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>39</v>
@@ -3879,10 +3831,10 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>48</v>
@@ -3905,18 +3857,20 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
@@ -3928,13 +3882,11 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3958,7 +3910,7 @@
         <v>39</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>39</v>
@@ -3985,13 +3937,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -4000,7 +3952,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -4011,13 +3963,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s" s="2">
         <v>160</v>
       </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4030,19 +3980,23 @@
         <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -4091,7 +4045,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -4106,7 +4060,7 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -4117,11 +4071,9 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B27" t="s" s="2">
         <v>163</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4139,17 +4091,21 @@
         <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4197,7 +4153,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4212,51 +4168,49 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>39</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4305,13 +4259,13 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -4320,18 +4274,18 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>39</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4339,33 +4293,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4389,13 +4341,11 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4413,13 +4363,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4428,18 +4378,18 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4447,28 +4397,28 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4495,13 +4445,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4519,10 +4469,10 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>48</v>
@@ -4534,18 +4484,18 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>183</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4562,19 +4512,19 @@
         <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4601,11 +4551,11 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
@@ -4623,7 +4573,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>48</v>
@@ -4638,18 +4588,18 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>39</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4660,30 +4610,30 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
@@ -4705,13 +4655,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4729,7 +4679,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4744,7 +4694,7 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4753,9 +4703,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4763,13 +4713,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>39</v>
@@ -4778,13 +4728,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4811,11 +4761,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4833,33 +4785,33 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>201</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4870,30 +4822,30 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I34" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
@@ -4915,13 +4867,11 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4939,13 +4889,13 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -4954,18 +4904,18 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>39</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4976,7 +4926,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -4988,13 +4938,13 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5018,16 +4968,16 @@
         <v>39</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -5044,23 +4994,19 @@
       <c r="AD35" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -5071,11 +5017,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5091,18 +5037,20 @@
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5124,39 +5072,35 @@
         <v>39</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5164,20 +5108,22 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>221</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5186,7 +5132,7 @@
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>39</v>
@@ -5198,13 +5144,11 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>59</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="K37" s="2"/>
       <c r="L37" t="s" s="2">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5254,11 +5198,15 @@
       <c r="AD37" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE37" s="2"/>
+      <c r="AE37" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" s="2"/>
+      <c r="AG37" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5266,7 +5214,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -5277,11 +5225,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="C38" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5300,17 +5250,13 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="K38" s="2"/>
       <c r="L38" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5347,20 +5293,26 @@
         <v>39</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AE38" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5368,7 +5320,7 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5379,7 +5331,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>224</v>
@@ -5459,7 +5411,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5485,11 +5437,9 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B40" t="s" s="2">
         <v>227</v>
       </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5507,17 +5457,23 @@
         <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K40" s="2"/>
       <c r="L40" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="M40" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5564,15 +5520,11 @@
       <c r="AD40" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5580,22 +5532,20 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>39</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5604,7 +5554,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5613,17 +5563,23 @@
         <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="L41" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5670,15 +5626,11 @@
       <c r="AD41" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5686,22 +5638,20 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>39</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5710,7 +5660,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5719,16 +5669,20 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="K42" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="L42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -5750,16 +5704,16 @@
         <v>39</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5777,13 +5731,13 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
@@ -5792,7 +5746,7 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -5803,11 +5757,9 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5825,14 +5777,16 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="L43" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5856,7 +5810,7 @@
         <v>39</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>39</v>
@@ -5883,7 +5837,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5898,7 +5852,7 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -5909,11 +5863,9 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5922,7 +5874,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
@@ -5934,11 +5886,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="L44" t="s" s="2">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5962,7 +5916,7 @@
         <v>39</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
         <v>39</v>
@@ -5989,13 +5943,13 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -6004,7 +5958,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -6015,11 +5969,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6035,23 +5989,21 @@
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>244</v>
+        <v>66</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6072,7 +6024,7 @@
         <v>39</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>39</v>
@@ -6098,11 +6050,15 @@
       <c r="AD45" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE45" s="2"/>
+      <c r="AE45" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" s="2"/>
+      <c r="AG45" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6110,54 +6066,52 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>248</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6178,7 +6132,7 @@
         <v>39</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
         <v>39</v>
@@ -6204,11 +6158,15 @@
       <c r="AD46" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE46" s="2"/>
+      <c r="AE46" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" s="2"/>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6216,18 +6174,18 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>255</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6250,17 +6208,15 @@
         <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6285,13 +6241,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6309,7 +6265,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6327,15 +6283,15 @@
         <v>263</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>39</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6346,7 +6302,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
@@ -6358,13 +6314,13 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6391,13 +6347,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
@@ -6415,13 +6371,13 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
@@ -6430,18 +6386,18 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>39</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6449,13 +6405,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>39</v>
@@ -6464,13 +6420,13 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>274</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6521,7 +6477,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6536,29 +6492,29 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>39</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>39</v>
@@ -6567,20 +6523,18 @@
         <v>39</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6629,13 +6583,13 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -6644,52 +6598,52 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>39</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I51" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
       </c>
@@ -6737,13 +6691,13 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -6752,10 +6706,10 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -6763,7 +6717,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6786,15 +6740,17 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -6819,13 +6775,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
@@ -6843,7 +6799,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6858,18 +6814,18 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>280</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6880,7 +6836,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -6889,18 +6845,20 @@
         <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -6925,13 +6883,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -6949,13 +6907,13 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -6964,18 +6922,18 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>287</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6983,13 +6941,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>39</v>
@@ -6998,15 +6956,17 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -7031,13 +6991,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>39</v>
@@ -7055,13 +7015,13 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -7070,18 +7030,18 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>294</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7092,7 +7052,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>39</v>
@@ -7101,16 +7061,16 @@
         <v>39</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7137,13 +7097,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>39</v>
@@ -7161,13 +7121,13 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -7176,18 +7136,18 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>301</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7207,21 +7167,19 @@
         <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7269,7 +7227,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7287,7 +7245,7 @@
         <v>39</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -7295,7 +7253,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7306,7 +7264,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>39</v>
@@ -7315,20 +7273,18 @@
         <v>39</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7353,13 +7309,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7377,13 +7333,13 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -7392,18 +7348,18 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>39</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7426,17 +7382,15 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7485,7 +7439,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7500,7 +7454,7 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>320</v>
+        <v>39</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
@@ -7511,7 +7465,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7522,7 +7476,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
@@ -7534,17 +7488,15 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>322</v>
+        <v>59</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7569,13 +7521,13 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>326</v>
+        <v>39</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
@@ -7593,13 +7545,13 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -7608,7 +7560,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>327</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
@@ -7619,11 +7571,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7642,15 +7594,17 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>329</v>
+        <v>65</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -7675,13 +7629,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>331</v>
+        <v>39</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7699,7 +7653,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7714,7 +7668,7 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
@@ -7729,34 +7683,36 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>335</v>
+        <v>64</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>336</v>
+        <v>161</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -7811,7 +7767,7 @@
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
@@ -7820,7 +7776,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -7831,7 +7787,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7842,7 +7798,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>39</v>
@@ -7854,13 +7810,13 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>339</v>
+        <v>183</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7887,13 +7843,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
@@ -7911,13 +7867,13 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
@@ -7926,18 +7882,18 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>342</v>
+        <v>39</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>343</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7945,10 +7901,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>39</v>
@@ -7960,13 +7916,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8017,13 +7973,13 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
@@ -8043,7 +7999,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8054,7 +8010,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>39</v>
@@ -8066,16 +8022,20 @@
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>345</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>59</v>
+        <v>346</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>39</v>
       </c>
@@ -8123,13 +8083,13 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -8138,555 +8098,17 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL69" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL69">
+  <autoFilter ref="A1:AL64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8696,7 +8118,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
